--- a/results/Неман-Мосты/group-0/Неман-Мосты-гр0-k1.xlsx
+++ b/results/Неман-Мосты/group-0/Неман-Мосты-гр0-k1.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\pkogo\results\Неман-Мосты\group-0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruslan\projects\pkogo\results\Неман-Мосты\group-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7830" windowHeight="10635"/>
   </bookViews>
   <sheets>
-    <sheet name="Неман-Мосты-гр0" sheetId="1" r:id="rId1"/>
+    <sheet name="Неман-Мосты-гр0-k1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -39,55 +39,55 @@
     <t>Pm</t>
   </si>
   <si>
+    <t>S_2802, H_2802, X, X1, X3</t>
+  </si>
+  <si>
+    <t>36.198 + 2.114*S_2802 + 0.113*H_2802 + 0.517*X + 0.75*X1 + 0.311*X3</t>
+  </si>
+  <si>
+    <t>OMP5</t>
+  </si>
+  <si>
     <t>S_2802, X, X1, X3</t>
   </si>
   <si>
-    <t>45.903 + 2.054*S_2802 + 0.548*X + 0.774*X1 + 0.351*X3</t>
+    <t>44.91 + 2.073*S_2802 + 0.53*X + 0.776*X1 + 0.362*X3</t>
   </si>
   <si>
     <t>OMP4</t>
   </si>
   <si>
-    <t>S_2802, H_2802, X, X1, X3</t>
-  </si>
-  <si>
-    <t>36.819 + 2.096*S_2802 + 0.118*H_2802 + 0.535*X + 0.747*X1 + 0.296*X3</t>
-  </si>
-  <si>
-    <t>OMP5</t>
+    <t>S_2802, Smax, X, X3, Xs</t>
+  </si>
+  <si>
+    <t>156.305 + 1.733*S_2802 + 0.019*Smax + 0.083*X + 0.086*X3 + 0.071*Xs</t>
+  </si>
+  <si>
+    <t>Lars5</t>
+  </si>
+  <si>
+    <t>S_2802, Smax, X, X3</t>
+  </si>
+  <si>
+    <t>174.314 + 1.664*S_2802 + 0.008*Smax + 0.084*X + 0.025*X3</t>
+  </si>
+  <si>
+    <t>Lars4</t>
   </si>
   <si>
     <t>S_2802, Smax, H_2802, X, X1, X2, X3, Xs</t>
   </si>
   <si>
-    <t>52.107 + 1.776*S_2802 + 0.185*Smax + 0.128*H_2802 - 1.271*X - 1.266*X1 + 2.2*X2 + 0.221*X3 + 1.738*Xs</t>
+    <t>51.264 + 1.888*S_2802 + 0.075*Smax + 0.128*H_2802 - 1.219*X - 1.203*X1 + 2.164*X2 + 0.247*X3 + 1.663*Xs</t>
   </si>
   <si>
     <t>LinearRegression</t>
-  </si>
-  <si>
-    <t>S_2802, Smax, X, X3, Xs</t>
-  </si>
-  <si>
-    <t>154.033 + 1.603*S_2802 + 0.157*Smax + 0.082*X + 0.064*X3 + 0.105*Xs</t>
-  </si>
-  <si>
-    <t>Lars5</t>
-  </si>
-  <si>
-    <t>S_2802, Smax, X, Xs</t>
-  </si>
-  <si>
-    <t>172.698 + 1.532*S_2802 + 0.146*Smax + 0.082*X + 0.031*Xs</t>
-  </si>
-  <si>
-    <t>Lars4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,9 +689,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -724,9 +724,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -943,13 +943,13 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0.51251250789315195</v>
+        <v>0.69464623660316804</v>
       </c>
       <c r="E2">
-        <v>0.85867975942901498</v>
+        <v>0.71935151766925098</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>67.567567567567494</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,13 +963,13 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.52507295339351101</v>
+        <v>0.69979711965445501</v>
       </c>
       <c r="E3">
-        <v>0.85105722111654403</v>
+        <v>0.714341648879111</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>64.864864864864799</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>0.53789458571628401</v>
+        <v>0.71370089943561699</v>
       </c>
       <c r="E4">
-        <v>0.84301210825059103</v>
+        <v>0.70045058793949899</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>72.972972972972897</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>0.54177687919168904</v>
+        <v>0.72613456830399503</v>
       </c>
       <c r="E5">
-        <v>0.840522345433667</v>
+        <v>0.68755260796099804</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>72.972972972972897</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,13 +1023,13 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0.54319181696240804</v>
+        <v>0.82003965319493799</v>
       </c>
       <c r="E6">
-        <v>0.83960862905586897</v>
+        <v>0.57230670727148103</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>62.162162162162097</v>
       </c>
     </row>
   </sheetData>
